--- a/src/main/resources/download/subsidize.xlsx
+++ b/src/main/resources/download/subsidize.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>资助项目</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>身份证号码</t>
+  </si>
+  <si>
+    <t>是否建档立卡学生</t>
   </si>
   <si>
     <t>是否6-15周岁</t>
@@ -149,17 +152,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,57 +256,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -230,8 +264,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,61 +297,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,13 +329,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +395,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,157 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,6 +551,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -572,30 +590,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -607,6 +601,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,166 +648,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -845,12 +848,12 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1188,19 +1191,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
-    <col min="10" max="10" width="24.125" customWidth="1"/>
-    <col min="14" max="14" width="27" customWidth="1"/>
+    <col min="10" max="11" width="24.125" customWidth="1"/>
+    <col min="15" max="15" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:29">
+    <row r="1" ht="24" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1240,7 @@
       <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="10" t="s">
@@ -1252,44 +1255,47 @@
       <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="13" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" s="19" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -1300,18 +1306,18 @@
       <c r="H2" s="9"/>
       <c r="I2" s="5"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="6"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
+      <c r="M2" s="6"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="6"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
@@ -1319,6 +1325,7 @@
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/download/subsidize.xlsx
+++ b/src/main/resources/download/subsidize.xlsx
@@ -46,7 +46,7 @@
     <t>身份证号码</t>
   </si>
   <si>
-    <t>是否建档立卡学生</t>
+    <t>是否脱贫家庭学生</t>
   </si>
   <si>
     <t>是否6-15周岁</t>
@@ -111,9 +111,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -152,19 +152,109 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -172,63 +262,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,63 +286,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,19 +329,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,163 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,21 +551,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -575,17 +560,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,20 +584,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,15 +611,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -651,154 +651,154 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -941,7 +941,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>

--- a/src/main/resources/download/subsidize.xlsx
+++ b/src/main/resources/download/subsidize.xlsx
@@ -58,7 +58,7 @@
     <t>户主姓名</t>
   </si>
   <si>
-    <t>户主身份证号码</t>
+    <t>户类型</t>
   </si>
   <si>
     <t>联系电话</t>
@@ -111,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -151,6 +151,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -159,23 +196,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,27 +257,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -216,17 +265,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,69 +297,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,187 +329,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,11 +551,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,6 +590,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -595,41 +621,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,157 +639,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -941,7 +941,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1"/>
